--- a/PHS-Certificated@psd1.org.xlsx
+++ b/PHS-Certificated@psd1.org.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jweisenfeld.WEISENFELDZ240\Documents\GitHub\Misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{9E31449F-37E6-40B4-939E-97B0573CA6B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B522A6B3-07A3-4644-997D-AA96AE455B2A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9480" yWindow="-15480" windowWidth="19440" windowHeight="15600"/>
+    <workbookView xWindow="30945" yWindow="-17595" windowWidth="21870" windowHeight="27030"/>
   </bookViews>
   <sheets>
     <sheet name="PHS-Certificated@psd1.org" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="450">
   <si>
     <t>DisplayName</t>
   </si>
@@ -28,6 +28,21 @@
     <t>EmailAddress</t>
   </si>
   <si>
+    <t>ObjectId</t>
+  </si>
+  <si>
+    <t>Juli O. Barquist</t>
+  </si>
+  <si>
+    <t>JBarquist@psd1.org</t>
+  </si>
+  <si>
+    <t>25bd01bf-81cd-4c80-b52d-f9a3fe711f03</t>
+  </si>
+  <si>
+    <t>Jacob N. Stueckle</t>
+  </si>
+  <si>
     <t>JStueckle@psd1.org</t>
   </si>
   <si>
@@ -43,36 +58,54 @@
     <t>1176e392-5108-4f29-9ae7-ace7dc8d7038</t>
   </si>
   <si>
+    <t>Kimberly J. Schneider</t>
+  </si>
+  <si>
     <t>KSchneider@psd1.org</t>
   </si>
   <si>
     <t>b2689f4e-a19d-4dd2-a17f-23105283b1db</t>
   </si>
   <si>
+    <t>Elizabeth C. Lecompte</t>
+  </si>
+  <si>
     <t>ELeCompte@psd1.org</t>
   </si>
   <si>
     <t>6b74a5e0-034d-4b8c-9a22-df3345de236f</t>
   </si>
   <si>
+    <t>John C. Weisenfeld</t>
+  </si>
+  <si>
     <t>JWeisenfeld@psd1.org</t>
   </si>
   <si>
     <t>b1591a3b-b4d4-4cb3-9a01-8ccf99919a41</t>
   </si>
   <si>
+    <t>Marcie G. Perez</t>
+  </si>
+  <si>
     <t>marperez@PSD1.org</t>
   </si>
   <si>
     <t>118571fb-7aa5-4027-9134-0a5e03908cdb</t>
   </si>
   <si>
+    <t>Rachael A. Stubblefield</t>
+  </si>
+  <si>
     <t>RStubblefield@PSD1.org</t>
   </si>
   <si>
     <t>718877f9-a8ca-4480-8023-ee256e9b807d</t>
   </si>
   <si>
+    <t>Michael A. Barcot</t>
+  </si>
+  <si>
     <t>ABarcot@psd1.org</t>
   </si>
   <si>
@@ -88,6 +121,9 @@
     <t>0e4f92e7-0082-46e6-a1e4-33baee6ebb26</t>
   </si>
   <si>
+    <t>Felica L. Soderstrom</t>
+  </si>
+  <si>
     <t>FSoderstrom@PSD1.org</t>
   </si>
   <si>
@@ -103,12 +139,18 @@
     <t>1223c7ed-cf7f-4e0a-99c7-20bdb6adb02b</t>
   </si>
   <si>
+    <t>Cesar R. Martinez</t>
+  </si>
+  <si>
     <t>CMartinez@psd1.org</t>
   </si>
   <si>
     <t>30c981f1-c8eb-4e1e-bf00-45ec7d18964c</t>
   </si>
   <si>
+    <t>Megan S. Forsythe</t>
+  </si>
+  <si>
     <t>mforsythe@PSD1.org</t>
   </si>
   <si>
@@ -124,36 +166,54 @@
     <t>4c17a13e-d9d4-43a3-bd2d-650e77e3b2ab</t>
   </si>
   <si>
+    <t>Julia C. Dudley</t>
+  </si>
+  <si>
     <t>JDudley@psd1.org</t>
   </si>
   <si>
     <t>b4c7d4e8-cc6f-40fb-9c13-be9f05ba78e8</t>
   </si>
   <si>
+    <t>Nacole C. Grade</t>
+  </si>
+  <si>
     <t>NGrade@psd1.org</t>
   </si>
   <si>
     <t>022667f6-59ec-4123-ac03-e021f2d46abe</t>
   </si>
   <si>
+    <t>Melissa A. Olmstead</t>
+  </si>
+  <si>
     <t>MOlmstead@psd1.org</t>
   </si>
   <si>
     <t>5d5f0bfc-7166-467c-83e3-42853763a100</t>
   </si>
   <si>
+    <t>Mara E. Alldredge</t>
+  </si>
+  <si>
     <t>MAlldredge@psd1.org</t>
   </si>
   <si>
     <t>04744932-cbff-4d22-a974-c9d2ea59a52a</t>
   </si>
   <si>
+    <t>Joseph N. Cox</t>
+  </si>
+  <si>
     <t>JoCox@psd1.org</t>
   </si>
   <si>
     <t>f0a4dde6-11d3-4343-a655-ba3199dfaf15</t>
   </si>
   <si>
+    <t>Paula A. Bazinet</t>
+  </si>
+  <si>
     <t>PBazinet@psd1.org</t>
   </si>
   <si>
@@ -169,12 +229,18 @@
     <t>9b7150f5-69f1-4016-8f66-ebe01b21164c</t>
   </si>
   <si>
+    <t>Brian L. Torrence</t>
+  </si>
+  <si>
     <t>BTorrence@psd1.org</t>
   </si>
   <si>
     <t>c8ab40af-f776-44a5-b693-b59e365ef827</t>
   </si>
   <si>
+    <t>Steven D. Nelson</t>
+  </si>
+  <si>
     <t>StNelson@psd1.org</t>
   </si>
   <si>
@@ -199,108 +265,180 @@
     <t>303d94da-1c8c-4581-8a1e-58b5069d7491</t>
   </si>
   <si>
+    <t>Marc A. Larrabee</t>
+  </si>
+  <si>
     <t>MLarrabee@psd1.org</t>
   </si>
   <si>
     <t>95ed021e-8217-4003-bd74-4da40fa417f0</t>
   </si>
   <si>
+    <t>Andrea L. Lopez</t>
+  </si>
+  <si>
     <t>AnLopez@psd1.org</t>
   </si>
   <si>
     <t>107c6696-107b-4574-ad08-ceb68e4d7895</t>
   </si>
   <si>
+    <t>Heidi M. Hanes</t>
+  </si>
+  <si>
     <t>HHanes@psd1.org</t>
   </si>
   <si>
     <t>96820c43-796b-4c5b-9a49-c10967706380</t>
   </si>
   <si>
+    <t>Charles E. Villanueva</t>
+  </si>
+  <si>
     <t>CVillanueva@psd1.org</t>
   </si>
   <si>
     <t>96a3790d-0df2-468c-8f7a-5ac0f4c0b158</t>
   </si>
   <si>
+    <t>Leon J. Wright-Jackson</t>
+  </si>
+  <si>
+    <t>LeJackson@psd1.org</t>
+  </si>
+  <si>
+    <t>e13ff0c1-5115-4941-89c3-6d3d65ab0647</t>
+  </si>
+  <si>
+    <t>Nancy J. Holton</t>
+  </si>
+  <si>
     <t>NHolton@psd1.org</t>
   </si>
   <si>
     <t>e21c8878-bca1-4f4c-8f1a-fd34854f98b4</t>
   </si>
   <si>
+    <t>J D. Zelaya</t>
+  </si>
+  <si>
     <t>JZelaya@psd1.org</t>
   </si>
   <si>
     <t>fa3e2ce0-cde8-4cc0-871b-c26d6bc3d2a7</t>
   </si>
   <si>
+    <t>Jay L. Covington</t>
+  </si>
+  <si>
     <t>JCovington@psd1.org</t>
   </si>
   <si>
     <t>85e13132-ec0f-4441-b402-aecd347a1518</t>
   </si>
   <si>
+    <t>Lisa N. Chiesa</t>
+  </si>
+  <si>
     <t>LChiesa@psd1.org</t>
   </si>
   <si>
     <t>a43ce3f8-99d2-4e2c-8eb5-31e1b28523fd</t>
   </si>
   <si>
+    <t>Carol A. Kauer</t>
+  </si>
+  <si>
     <t>CKauer@PSD1.org</t>
   </si>
   <si>
     <t>6c2e1ca6-7b15-4ab3-bb51-4af4fd2603d6</t>
   </si>
   <si>
+    <t>Molly L. West</t>
+  </si>
+  <si>
     <t>mwest@PSD1.org</t>
   </si>
   <si>
     <t>7ef322bf-3c91-463a-95f5-bb29f639e4a6</t>
   </si>
   <si>
+    <t>Greggory L. Huisingh</t>
+  </si>
+  <si>
     <t>GHuisingh@psd1.org</t>
   </si>
   <si>
     <t>c5fca715-0b7d-4b5f-bc00-060bce9c3c80</t>
   </si>
   <si>
+    <t>Matt W. Larsen</t>
+  </si>
+  <si>
     <t>MLarsen@psd1.org</t>
   </si>
   <si>
     <t>77208f43-acea-4334-9d18-aefa8dcf528e</t>
   </si>
   <si>
+    <t>Oscar Murguia</t>
+  </si>
+  <si>
+    <t>OMurguia@psd1.org</t>
+  </si>
+  <si>
+    <t>2a619122-a4d6-4aec-b945-608d893d33ae</t>
+  </si>
+  <si>
+    <t>Dauson R. Larrabee</t>
+  </si>
+  <si>
     <t>DLarrabee@PSD1.org</t>
   </si>
   <si>
     <t>4f8f0e55-5815-40a3-a531-8fee408ed278</t>
   </si>
   <si>
+    <t>Rodney P. Dehaan</t>
+  </si>
+  <si>
     <t>RDehaan@psd1.org</t>
   </si>
   <si>
     <t>22686e7e-0688-4a1a-8a69-60abddf186dc</t>
   </si>
   <si>
+    <t>Trevor A. Nix</t>
+  </si>
+  <si>
     <t>TNix@psd1.org</t>
   </si>
   <si>
     <t>d181fcc2-3faf-447b-b7fe-f3f9adbe71f9</t>
   </si>
   <si>
+    <t>Efren M. Garcia</t>
+  </si>
+  <si>
     <t>egarcia@PSD1.org</t>
   </si>
   <si>
     <t>36c5d25f-57f0-43b4-ad98-e69f5dde89a9</t>
   </si>
   <si>
+    <t>Maria G. Nunez</t>
+  </si>
+  <si>
     <t>MNunez@psd1.org</t>
   </si>
   <si>
     <t>2b3db900-edb3-4abb-8918-e93c6ad3a144</t>
   </si>
   <si>
+    <t>Amber N. Wilcox</t>
+  </si>
+  <si>
     <t>AWilcox@psd1.org</t>
   </si>
   <si>
@@ -316,54 +454,81 @@
     <t>8a9030ed-707e-4637-9a99-4441e3e9c83d</t>
   </si>
   <si>
+    <t>Randi E. Cruzen</t>
+  </si>
+  <si>
     <t>RCruzen@psd1.org</t>
   </si>
   <si>
     <t>84a62a12-e933-4f5d-b464-b89781c15d29</t>
   </si>
   <si>
+    <t>Jennifer L. Rickman</t>
+  </si>
+  <si>
     <t>JRickman@psd1.org</t>
   </si>
   <si>
     <t>e738f9de-bc9d-4582-84e2-7cd221e1c7f7</t>
   </si>
   <si>
+    <t>Constantino L. Montes</t>
+  </si>
+  <si>
     <t>CMontes@PSD1.org</t>
   </si>
   <si>
     <t>20a727fe-d983-46c7-baf0-321dfdafbe1e</t>
   </si>
   <si>
+    <t>William C. Brincken</t>
+  </si>
+  <si>
     <t>WBrincken@PSD1.org</t>
   </si>
   <si>
     <t>1b150571-811b-4a89-9b3d-d45580888cfe</t>
   </si>
   <si>
+    <t>Courtney J. Dallas</t>
+  </si>
+  <si>
     <t>CDallas@psd1.org</t>
   </si>
   <si>
     <t>2c96c981-1e29-4859-a583-108975b55167</t>
   </si>
   <si>
+    <t>Irada A. Azizova</t>
+  </si>
+  <si>
     <t>IAzizova@psd1.org</t>
   </si>
   <si>
     <t>2fcb307f-0d6e-4f3e-ac8a-b659da50b450</t>
   </si>
   <si>
+    <t>Gabriela M. Whitemarsh</t>
+  </si>
+  <si>
     <t>GWhitemarsh@PSD1.org</t>
   </si>
   <si>
     <t>a0604eb6-124b-42b5-b2e9-95ddead8effd</t>
   </si>
   <si>
+    <t>Angela C. Perez</t>
+  </si>
+  <si>
     <t>AnPerez@psd1.org</t>
   </si>
   <si>
     <t>aed5086c-2b74-42a1-90ff-e2061917d1f9</t>
   </si>
   <si>
+    <t>Stacey C. Beal</t>
+  </si>
+  <si>
     <t>SBeal@psd1.org</t>
   </si>
   <si>
@@ -379,40 +544,52 @@
     <t>fac11c50-fbc0-41e1-a6f9-6cb48bd0b58c</t>
   </si>
   <si>
+    <t>Miguel A. Saldana</t>
+  </si>
+  <si>
     <t>MSaldana@psd1.org</t>
   </si>
   <si>
     <t>c6940969-3407-4f38-ab6d-fef57f5df4c6</t>
   </si>
   <si>
+    <t>Sarah M. Overturf</t>
+  </si>
+  <si>
     <t>SOverturf@psd1.org</t>
   </si>
   <si>
     <t>8ad25bba-fe80-4ccc-9ad8-f6aa35e4b93a</t>
   </si>
   <si>
+    <t>Danielle M. Vasquez</t>
+  </si>
+  <si>
     <t>DVasquez@PSD1.org</t>
   </si>
   <si>
     <t>d4178f2c-5f5b-431d-a1c2-2582bd4ac827</t>
   </si>
   <si>
+    <t>Rebecca D. Mclaughlin</t>
+  </si>
+  <si>
     <t>RMclaughlin@psd1.org</t>
   </si>
   <si>
     <t>846804a8-dbf6-4b5a-9696-54350b55c68c</t>
   </si>
   <si>
+    <t>Jose J. Garcia</t>
+  </si>
+  <si>
     <t>JoGarcia@PSD1.org</t>
   </si>
   <si>
     <t>4e8f7416-7508-4281-8741-ed38bcda486f</t>
   </si>
   <si>
-    <t>jcampbell@PSD1.org</t>
-  </si>
-  <si>
-    <t>2f576d90-6509-4b09-9ea7-cf6d71919c22</t>
+    <t>Laurie T. Frodel</t>
   </si>
   <si>
     <t>LFrodel@psd1.org</t>
@@ -421,42 +598,63 @@
     <t>22b858ce-218f-4fd3-8771-9fdd92068bd8</t>
   </si>
   <si>
+    <t>Brent M. Rust</t>
+  </si>
+  <si>
     <t>BRust@PSD1.org</t>
   </si>
   <si>
     <t>30320a36-083f-485b-bfee-8e736ae91d42</t>
   </si>
   <si>
+    <t>Heather L. Johnson</t>
+  </si>
+  <si>
     <t>HJohnson@PSD1.org</t>
   </si>
   <si>
     <t>3b7fae33-c9dc-49e4-b3a7-793759c54483</t>
   </si>
   <si>
+    <t>Micah D. Flajole</t>
+  </si>
+  <si>
     <t>MFlajole@psd1.org</t>
   </si>
   <si>
     <t>5e5b0285-4755-4c94-82b3-f2c8f1609736</t>
   </si>
   <si>
+    <t>David J. Leatham</t>
+  </si>
+  <si>
     <t>DLeatham@psd1.org</t>
   </si>
   <si>
     <t>8f463e78-7aaa-4420-aa10-844b5ac823c6</t>
   </si>
   <si>
+    <t>Cristal G. Alcala</t>
+  </si>
+  <si>
     <t>CAlcala@PSD1.org</t>
   </si>
   <si>
     <t>480079f7-3207-444a-b028-21b4bc5c3ccb</t>
   </si>
   <si>
+    <t>Sarah J. Garza</t>
+  </si>
+  <si>
     <t>SGarza@PSD1.org</t>
   </si>
   <si>
     <t>dcdb6322-85e0-49cc-b6a1-fc511bcf6c51</t>
   </si>
   <si>
+    <t>Melissa A. Strobridge</t>
+  </si>
+  <si>
     <t>MStrobridge@psd1.org</t>
   </si>
   <si>
@@ -472,18 +670,27 @@
     <t>83b7a321-c628-4b11-a1c9-adee2ec71312</t>
   </si>
   <si>
+    <t>Jason M. Schlegel</t>
+  </si>
+  <si>
     <t>JSchlegel@PSD1.org</t>
   </si>
   <si>
     <t>675c7a77-ef7a-4356-a1dc-32df1c0773a2</t>
   </si>
   <si>
+    <t>Paullette M. Doyle</t>
+  </si>
+  <si>
     <t>PDoyle@PSD1.org</t>
   </si>
   <si>
     <t>286da7bd-ce0e-4fe6-b317-728ec911a606</t>
   </si>
   <si>
+    <t>Stella S. Leatham</t>
+  </si>
+  <si>
     <t>SLeatham@psd1.org</t>
   </si>
   <si>
@@ -499,42 +706,63 @@
     <t>963f68c1-88ab-49b1-b649-4211f206e05b</t>
   </si>
   <si>
+    <t>Megan M. Williams</t>
+  </si>
+  <si>
     <t>MegWilliams@psd1.org</t>
   </si>
   <si>
     <t>bfa5eec8-43ce-42d8-bfc3-13312a4ad57f</t>
   </si>
   <si>
+    <t>Savaya M. Hall</t>
+  </si>
+  <si>
     <t>SHall@psd1.org</t>
   </si>
   <si>
     <t>bac8d70d-8ae3-4d4a-8037-245c9a947a93</t>
   </si>
   <si>
+    <t>Corey S. Kincaid</t>
+  </si>
+  <si>
     <t>CKincaid@PSD1.org</t>
   </si>
   <si>
     <t>d51400d1-06aa-4317-bf8c-77cb226ee1cc</t>
   </si>
   <si>
+    <t>Jose S. Mejia</t>
+  </si>
+  <si>
     <t>JoMejia@PSD1.org</t>
   </si>
   <si>
     <t>d3a40751-aba5-40dc-b04d-be12b6170292</t>
   </si>
   <si>
+    <t>Kevin G. Lawr</t>
+  </si>
+  <si>
     <t>KLawr@PSD1.org</t>
   </si>
   <si>
     <t>12c955f0-6bf0-450e-ad8c-2b130927eed7</t>
   </si>
   <si>
+    <t>Claudia Y. Madrigal</t>
+  </si>
+  <si>
     <t>CMadrigal@psd1.org</t>
   </si>
   <si>
     <t>113af4b9-8e67-4488-9441-31befd0d759e</t>
   </si>
   <si>
+    <t>Justin M. Brault</t>
+  </si>
+  <si>
     <t>JBrault@PSD1.org</t>
   </si>
   <si>
@@ -550,36 +778,54 @@
     <t>24f1b606-b000-40bd-b866-7184af3dd2b5</t>
   </si>
   <si>
+    <t>Richard C. Deleon</t>
+  </si>
+  <si>
     <t>RiDeleon@psd1.org</t>
   </si>
   <si>
     <t>d89d0502-eb93-44c7-9fd2-b4f88b62ce61</t>
   </si>
   <si>
+    <t>Scott B. Schadler</t>
+  </si>
+  <si>
     <t>SSchadler@psd1.org</t>
   </si>
   <si>
     <t>52c6d1c4-af93-48b2-baca-38431bb59e7b</t>
   </si>
   <si>
+    <t>Gregory F. Muckenhaupt</t>
+  </si>
+  <si>
     <t>GMuckenhaupt@PSD1.org</t>
   </si>
   <si>
     <t>3b9a6600-a804-430a-b3e3-83b53662f073</t>
   </si>
   <si>
+    <t>John S. Austin</t>
+  </si>
+  <si>
     <t>JAustin@PSD1.org</t>
   </si>
   <si>
     <t>b423961f-ddbf-4276-8566-9acad700e798</t>
   </si>
   <si>
+    <t>Kent M. Neidhold</t>
+  </si>
+  <si>
     <t>KNeidhold@PSD1.org</t>
   </si>
   <si>
     <t>71c802c0-7ca0-47bd-b94d-6bf6921835e4</t>
   </si>
   <si>
+    <t>Kristy L. Baker</t>
+  </si>
+  <si>
     <t>KBaker@psd1.org</t>
   </si>
   <si>
@@ -595,6 +841,9 @@
     <t>d15c3a5a-4031-427d-95f5-3f4f4760d109</t>
   </si>
   <si>
+    <t>Gregory T. Domingos</t>
+  </si>
+  <si>
     <t>GDomingos@PSD1.org</t>
   </si>
   <si>
@@ -610,12 +859,18 @@
     <t>56ee9067-e17a-49f5-853a-f527ec1821f2</t>
   </si>
   <si>
+    <t>Jordan D. Devoir</t>
+  </si>
+  <si>
     <t>JDevoir@PSD1.org</t>
   </si>
   <si>
     <t>3438c15d-db13-4eca-ab04-ac632044f033</t>
   </si>
   <si>
+    <t>Joseph R. Emerson</t>
+  </si>
+  <si>
     <t>JEmerson@psd1.org</t>
   </si>
   <si>
@@ -631,12 +886,18 @@
     <t>992398d7-3d9c-4adf-9f1f-d3ef4abd0439</t>
   </si>
   <si>
+    <t>Jill T. Raebel</t>
+  </si>
+  <si>
     <t>JRaebel@psd1.org</t>
   </si>
   <si>
     <t>06dbedfb-eee7-492b-ad3f-089e5ac9dd5d</t>
   </si>
   <si>
+    <t>Tyler A. Hockaday</t>
+  </si>
+  <si>
     <t>THockaday@psd1.org</t>
   </si>
   <si>
@@ -652,12 +913,18 @@
     <t>5014c277-65cf-48d1-b3f5-1e1a78cb7bb4</t>
   </si>
   <si>
+    <t>Wendy G. Newbury</t>
+  </si>
+  <si>
     <t>WNewbury@psd1.org</t>
   </si>
   <si>
     <t>5f3be76b-4acb-43f5-9728-e673af0cc0af</t>
   </si>
   <si>
+    <t>Krystie B. Mathews</t>
+  </si>
+  <si>
     <t>KMathews@psd1.org</t>
   </si>
   <si>
@@ -673,12 +940,18 @@
     <t>5ea3469d-3892-4c97-b720-4e5a0c74c01d</t>
   </si>
   <si>
+    <t>Kara L. Cleveland</t>
+  </si>
+  <si>
     <t>KCleveland@psd1.org</t>
   </si>
   <si>
     <t>87480b1c-474a-427f-a449-b32dc0fd2476</t>
   </si>
   <si>
+    <t>Kendrick M. Bishop</t>
+  </si>
+  <si>
     <t>KBishop@PSD1.org</t>
   </si>
   <si>
@@ -694,19 +967,16 @@
     <t>a5967a24-fed3-483e-804c-507e6fab2af3</t>
   </si>
   <si>
+    <t>Andrea A. Smith</t>
+  </si>
+  <si>
     <t>ASmith@PSD1.org</t>
   </si>
   <si>
     <t>381946e7-8dfe-4912-b41c-bd5d5eb1d069</t>
   </si>
   <si>
-    <t>Corina Cortes</t>
-  </si>
-  <si>
-    <t>CCortes@PSD1.org</t>
-  </si>
-  <si>
-    <t>2e9374a2-3a3a-4bb0-9493-9ea239212651</t>
+    <t>A.j. J. Lambert</t>
   </si>
   <si>
     <t>ALambert@PSD1.org</t>
@@ -733,18 +1003,27 @@
     <t>f61ab159-a1e7-4424-87c7-0e02312ca1fb</t>
   </si>
   <si>
+    <t>Lizette M. Gutierrez</t>
+  </si>
+  <si>
     <t>ligutierrez@PSD1.org</t>
   </si>
   <si>
     <t>ea0d80ad-b73e-4f01-a49a-b8ef0a898aa2</t>
   </si>
   <si>
+    <t>Esfeidy A. Guzman</t>
+  </si>
+  <si>
     <t>EGuzman@PSD1.org</t>
   </si>
   <si>
     <t>dac88d20-f9c4-4c66-900a-88d3f0acf6d3</t>
   </si>
   <si>
+    <t>Amanda R. Freeman</t>
+  </si>
+  <si>
     <t>AFreeman@PSD1.org</t>
   </si>
   <si>
@@ -760,10 +1039,7 @@
     <t>68f67456-f8f2-4f4f-9db6-06c9d31460a8</t>
   </si>
   <si>
-    <t>ESmith@PSD1.org</t>
-  </si>
-  <si>
-    <t>cfee629e-12f5-42a7-9e77-6d2cff1e59ab</t>
+    <t>Dustin E. Lamb</t>
   </si>
   <si>
     <t>DLamb@psd1.org</t>
@@ -772,6 +1048,9 @@
     <t>6b534e88-b464-4035-bce4-95740c030291</t>
   </si>
   <si>
+    <t>John D. Weatherby</t>
+  </si>
+  <si>
     <t>JWeatherby@psd1.org</t>
   </si>
   <si>
@@ -787,6 +1066,9 @@
     <t>9ae2e50f-e7cf-4e71-9351-3e20b6a2f83a</t>
   </si>
   <si>
+    <t>Valentin A. Kucheryaviy</t>
+  </si>
+  <si>
     <t>VKucheryaviy@PSD1.org</t>
   </si>
   <si>
@@ -802,30 +1084,45 @@
     <t>ad453cd1-56f2-4a08-809b-c5ae6f2624c1</t>
   </si>
   <si>
+    <t>Ryan D. Scott</t>
+  </si>
+  <si>
     <t>RScott@PSD1.org</t>
   </si>
   <si>
     <t>e2a16389-7c11-4967-8113-1e77cb210278</t>
   </si>
   <si>
+    <t>Jason D. Quick</t>
+  </si>
+  <si>
     <t>jquick@PSD1.org</t>
   </si>
   <si>
     <t>14de9537-c9ba-43d6-b499-60893edc3bbf</t>
   </si>
   <si>
+    <t>Gladys . Suarez</t>
+  </si>
+  <si>
     <t>gsuarez@PSD1.org</t>
   </si>
   <si>
     <t>183d05f1-9ec6-4ac6-bb3a-2da108d2d4c3</t>
   </si>
   <si>
+    <t>Jennifer L. Reyes</t>
+  </si>
+  <si>
     <t>JReyes@PSD1.org</t>
   </si>
   <si>
     <t>5e44fd8a-b578-400d-901b-fa45ff8f5b19</t>
   </si>
   <si>
+    <t>Micaela M. Patten</t>
+  </si>
+  <si>
     <t>mpatten@PSD1.org</t>
   </si>
   <si>
@@ -841,24 +1138,45 @@
     <t>dbe9e6f8-adc9-4f7e-a943-2afad792bc0e</t>
   </si>
   <si>
+    <t>Tamara M. Furth</t>
+  </si>
+  <si>
     <t>tfurth@PSD1.org</t>
   </si>
   <si>
     <t>198bb196-d08c-4d2d-b9ee-d50bfdbe40a9</t>
   </si>
   <si>
+    <t>Valerie A. Ocker</t>
+  </si>
+  <si>
     <t>vocker@PSD1.org</t>
   </si>
   <si>
     <t>023d1204-c7c7-4c92-aa98-d883b279e782</t>
   </si>
   <si>
+    <t>Axel D. Garcia</t>
+  </si>
+  <si>
     <t>axgarcia@PSD1.org</t>
   </si>
   <si>
     <t>ba673d18-f3c7-4410-978d-92637ba60fd4</t>
   </si>
   <si>
+    <t>Nicole Hunter</t>
+  </si>
+  <si>
+    <t>nhunter@PSD1.org</t>
+  </si>
+  <si>
+    <t>61e5eee3-15b8-42fd-b35c-1bdccf731067</t>
+  </si>
+  <si>
+    <t>Jerred L. Erickson</t>
+  </si>
+  <si>
     <t>jerickson@PSD1.org</t>
   </si>
   <si>
@@ -874,6 +1192,9 @@
     <t>f08ca724-8c0b-4796-9158-1396e8f1f44c</t>
   </si>
   <si>
+    <t>Jaclyn M. Moyer</t>
+  </si>
+  <si>
     <t>jmoyer@PSD1.org</t>
   </si>
   <si>
@@ -907,18 +1228,27 @@
     <t>f32042f5-91e9-4612-86ef-99e2edf10ee6</t>
   </si>
   <si>
+    <t>Trudy R. Tkach</t>
+  </si>
+  <si>
     <t>ttkach@PSD1.org</t>
   </si>
   <si>
     <t>8827275a-a876-45e9-91ed-f86c12f7c734</t>
   </si>
   <si>
+    <t>Joseph P. Darezzo</t>
+  </si>
+  <si>
     <t>jdarezzo@PSD1.org</t>
   </si>
   <si>
     <t>02a8b967-a071-467d-b6ab-415261e834be</t>
   </si>
   <si>
+    <t>Jessie L. Ihly</t>
+  </si>
+  <si>
     <t>jihly@PSD1.org</t>
   </si>
   <si>
@@ -943,31 +1273,43 @@
     <t>91402bb1-7612-4dda-bcc1-86d1a274c630</t>
   </si>
   <si>
+    <t>Deborah S. Dunn</t>
+  </si>
+  <si>
     <t>DDunn@PSD1.org</t>
   </si>
   <si>
     <t>301ad8c1-eefa-41d6-a61d-13004feb625c</t>
   </si>
   <si>
+    <t>Danielle C. Sharpe</t>
+  </si>
+  <si>
     <t>dsharpe@PSD1.org</t>
   </si>
   <si>
     <t>3057e5ef-c9c5-4a52-9c7c-73772cb3f4a5</t>
   </si>
   <si>
-    <t>Edwin Armstrong</t>
-  </si>
-  <si>
-    <t>earmstrong@PSD1.org</t>
-  </si>
-  <si>
-    <t>5ce5d042-bfb6-48bf-afc8-1ae38afcfb5a</t>
-  </si>
-  <si>
-    <t>timartinez@PSD1.org</t>
-  </si>
-  <si>
-    <t>b997db91-9760-48ea-a680-2a2edd24e1fa</t>
+    <t>Kendra A. Waters</t>
+  </si>
+  <si>
+    <t>KWaters@PSD1.org</t>
+  </si>
+  <si>
+    <t>cbac13d3-69de-4105-a558-e9758ab22c4c</t>
+  </si>
+  <si>
+    <t>Mark A. Cheney</t>
+  </si>
+  <si>
+    <t>mcheney@PSD1.org</t>
+  </si>
+  <si>
+    <t>5aa49c27-187c-4219-b2cc-027dd8dc3542</t>
+  </si>
+  <si>
+    <t>Kylie N. Gallacher</t>
   </si>
   <si>
     <t>KGallacher@PSD1.org</t>
@@ -976,27 +1318,6 @@
     <t>15258879-51d3-4918-b12a-1810bb83d249</t>
   </si>
   <si>
-    <t>tsmith@PSD1.org</t>
-  </si>
-  <si>
-    <t>eeac54d7-ecea-403b-a951-5674cbb161b4</t>
-  </si>
-  <si>
-    <t>lparker@PSD1.org</t>
-  </si>
-  <si>
-    <t>3b45ab08-c863-48b5-8906-31064b8fb900</t>
-  </si>
-  <si>
-    <t>Jacob Spanjer</t>
-  </si>
-  <si>
-    <t>jspanjer@PSD1.org</t>
-  </si>
-  <si>
-    <t>4289b648-0633-4a60-8650-70341219f2d0</t>
-  </si>
-  <si>
     <t>Tyson Sturza</t>
   </si>
   <si>
@@ -1006,27 +1327,24 @@
     <t>28782e37-2f01-492e-b4f5-60fb15b3cfd5</t>
   </si>
   <si>
+    <t>Jacob D. Munden</t>
+  </si>
+  <si>
     <t>jmunden@PSD1.org</t>
   </si>
   <si>
     <t>00185254-0d62-4d29-8d07-f550cc032346</t>
   </si>
   <si>
+    <t>Susana V. Butterworth</t>
+  </si>
+  <si>
     <t>sbutterworth@PSD1.org</t>
   </si>
   <si>
     <t>ab2f9f93-4f62-4e9e-a20c-a1b6c66f35ca</t>
   </si>
   <si>
-    <t>Kaden Enriquez</t>
-  </si>
-  <si>
-    <t>kenriquez@PSD1.org</t>
-  </si>
-  <si>
-    <t>54a1edf4-851b-4262-bc12-02079442d96d</t>
-  </si>
-  <si>
     <t>Justin Farley</t>
   </si>
   <si>
@@ -1036,21 +1354,6 @@
     <t>46cb5f3b-67f8-4c8a-a161-a494ed9d0cbd</t>
   </si>
   <si>
-    <t>Kara Adams</t>
-  </si>
-  <si>
-    <t>kaadams@PSD1.org</t>
-  </si>
-  <si>
-    <t>b3eb68a9-e595-40d4-9256-ebbee1571c28</t>
-  </si>
-  <si>
-    <t>amenchaca@PSD1.org</t>
-  </si>
-  <si>
-    <t>105358e3-e13d-4b76-990b-e599879e7813</t>
-  </si>
-  <si>
     <t>Cora Shellito</t>
   </si>
   <si>
@@ -1060,352 +1363,13 @@
     <t>55a4a456-d2b3-483e-b18a-da29d1f24536</t>
   </si>
   <si>
-    <t>Elizabeth Lecompte</t>
-  </si>
-  <si>
-    <t>John Weisenfeld</t>
-  </si>
-  <si>
-    <t>Marcie Perez</t>
-  </si>
-  <si>
-    <t>Rachael Stubblefield</t>
-  </si>
-  <si>
-    <t>Felica Soderstrom</t>
-  </si>
-  <si>
-    <t>Cesar Martinez</t>
-  </si>
-  <si>
-    <t>Megan Forsythe</t>
-  </si>
-  <si>
-    <t>Julia Dudley</t>
-  </si>
-  <si>
-    <t>Nacole Grade</t>
-  </si>
-  <si>
-    <t>Melissa Olmstead</t>
-  </si>
-  <si>
-    <t>Mara Alldredge</t>
-  </si>
-  <si>
-    <t>Joseph Cox</t>
-  </si>
-  <si>
-    <t>Paula Bazinet</t>
-  </si>
-  <si>
-    <t>Brian Torrence</t>
-  </si>
-  <si>
-    <t>Steven Nelson</t>
-  </si>
-  <si>
-    <t>Marc Larrabee</t>
-  </si>
-  <si>
-    <t>Andrea Lopez</t>
-  </si>
-  <si>
-    <t>Heidi Hanes</t>
-  </si>
-  <si>
-    <t>Charles Villanueva</t>
-  </si>
-  <si>
-    <t>Nancy Holton</t>
-  </si>
-  <si>
-    <t>J Zelaya</t>
-  </si>
-  <si>
-    <t>Jay Covington</t>
-  </si>
-  <si>
-    <t>Lisa Chiesa</t>
-  </si>
-  <si>
-    <t>Carol Kauer</t>
-  </si>
-  <si>
-    <t>Molly West</t>
-  </si>
-  <si>
-    <t>Greggory Huisingh</t>
-  </si>
-  <si>
-    <t>Matt Larsen</t>
-  </si>
-  <si>
-    <t>Dauson Larrabee</t>
-  </si>
-  <si>
-    <t>Rodney Dehaan</t>
-  </si>
-  <si>
-    <t>Trevor Nix</t>
-  </si>
-  <si>
-    <t>Efren Garcia</t>
-  </si>
-  <si>
-    <t>Maria Nunez</t>
-  </si>
-  <si>
-    <t>Amber Wilcox</t>
-  </si>
-  <si>
-    <t>Randi Cruzen</t>
-  </si>
-  <si>
-    <t>Jennifer Rickman</t>
-  </si>
-  <si>
-    <t>Constantino Montes</t>
-  </si>
-  <si>
-    <t>William Brincken</t>
-  </si>
-  <si>
-    <t>Courtney Dallas</t>
-  </si>
-  <si>
-    <t>Irada Azizova</t>
-  </si>
-  <si>
-    <t>Gabriela Whitemarsh</t>
-  </si>
-  <si>
-    <t>Angela Perez</t>
-  </si>
-  <si>
-    <t>Stacey Beal</t>
-  </si>
-  <si>
-    <t>Miguel Saldana</t>
-  </si>
-  <si>
-    <t>Sarah Overturf</t>
-  </si>
-  <si>
-    <t>Danielle Vasquez</t>
-  </si>
-  <si>
-    <t>Rebecca Mclaughlin</t>
-  </si>
-  <si>
-    <t>Jose Garcia</t>
-  </si>
-  <si>
-    <t>Jacob Campbell</t>
-  </si>
-  <si>
-    <t>Laurie Frodel</t>
-  </si>
-  <si>
-    <t>Brent Rust</t>
-  </si>
-  <si>
-    <t>Heather Johnson</t>
-  </si>
-  <si>
-    <t>Micah Flajole</t>
-  </si>
-  <si>
-    <t>David Leatham</t>
-  </si>
-  <si>
-    <t>Cristal Alcala</t>
-  </si>
-  <si>
-    <t>Sarah Garza</t>
-  </si>
-  <si>
-    <t>Melissa Strobridge</t>
-  </si>
-  <si>
-    <t>Jason Schlegel</t>
-  </si>
-  <si>
-    <t>Paullette Doyle</t>
-  </si>
-  <si>
-    <t>Stella Leatham</t>
-  </si>
-  <si>
-    <t>Megan Williams</t>
-  </si>
-  <si>
-    <t>Savaya Hall</t>
-  </si>
-  <si>
-    <t>Corey Kincaid</t>
-  </si>
-  <si>
-    <t>Jose Mejia</t>
-  </si>
-  <si>
-    <t>Kevin Lawr</t>
-  </si>
-  <si>
-    <t>Claudia Madrigal</t>
-  </si>
-  <si>
-    <t>Justin Brault</t>
-  </si>
-  <si>
-    <t>Richard Deleon</t>
-  </si>
-  <si>
-    <t>Scott Schadler</t>
-  </si>
-  <si>
-    <t>John Austin</t>
-  </si>
-  <si>
-    <t>Kent Neidhold</t>
-  </si>
-  <si>
-    <t>Kristy Baker</t>
-  </si>
-  <si>
-    <t>Jordan Devoir</t>
-  </si>
-  <si>
-    <t>Jill Raebel</t>
-  </si>
-  <si>
-    <t>Tyler Hockaday</t>
-  </si>
-  <si>
-    <t>Wendy Newbury</t>
-  </si>
-  <si>
-    <t>Krystie Mathews</t>
-  </si>
-  <si>
-    <t>Kara Cleveland</t>
-  </si>
-  <si>
-    <t>Kendrick Bishop</t>
-  </si>
-  <si>
-    <t>Andrea Smith</t>
-  </si>
-  <si>
-    <t>Lizette Gutierrez</t>
-  </si>
-  <si>
-    <t>Esfeidy Guzman</t>
-  </si>
-  <si>
-    <t>Amanda Freeman</t>
-  </si>
-  <si>
-    <t>Erica Smith</t>
-  </si>
-  <si>
-    <t>Dustin Lamb</t>
-  </si>
-  <si>
-    <t>John Weatherby</t>
-  </si>
-  <si>
-    <t>Valentin Kucheryaviy</t>
-  </si>
-  <si>
-    <t>Ryan Scott</t>
-  </si>
-  <si>
-    <t>Jason Quick</t>
-  </si>
-  <si>
-    <t>Jennifer Reyes</t>
-  </si>
-  <si>
-    <t>Micaela Patten</t>
-  </si>
-  <si>
-    <t>Tamara Furth</t>
-  </si>
-  <si>
-    <t>Valerie Ocker</t>
-  </si>
-  <si>
-    <t>Axel Garcia</t>
-  </si>
-  <si>
-    <t>Jerred Erickson</t>
-  </si>
-  <si>
-    <t>Jaclyn Moyer</t>
-  </si>
-  <si>
-    <t>Trudy Tkach</t>
-  </si>
-  <si>
-    <t>Joseph Darezzo</t>
-  </si>
-  <si>
-    <t>Jessie Ihly</t>
-  </si>
-  <si>
-    <t>Deborah Dunn</t>
-  </si>
-  <si>
-    <t>Danielle Sharpe</t>
-  </si>
-  <si>
-    <t>Timothy Martinez</t>
-  </si>
-  <si>
-    <t>Kylie Gallacher</t>
-  </si>
-  <si>
-    <t>Tana Smith</t>
-  </si>
-  <si>
-    <t>Lanae Parker</t>
-  </si>
-  <si>
-    <t>Jacob Munden</t>
-  </si>
-  <si>
-    <t>Susana Butterworth</t>
-  </si>
-  <si>
-    <t>Antonio Menchaca</t>
-  </si>
-  <si>
-    <t>Jake Stueckle</t>
-  </si>
-  <si>
-    <t>Kim Schneider</t>
-  </si>
-  <si>
-    <t>Aaron Barcot</t>
-  </si>
-  <si>
-    <t>Gladys Suarez</t>
-  </si>
-  <si>
-    <t>Greg Muckenhaupt</t>
-  </si>
-  <si>
-    <t>Greg Domingos</t>
-  </si>
-  <si>
-    <t>Joe Emerson</t>
-  </si>
-  <si>
-    <t>AJ Lambert</t>
-  </si>
-  <si>
-    <t>O365-ObjectId</t>
+    <t>Ruth Mora Cortez</t>
+  </si>
+  <si>
+    <t>rumora@PSD1.org</t>
+  </si>
+  <si>
+    <t>4c2ac39c-3486-4418-8af6-1597a0b4ccef</t>
   </si>
 </sst>
 </file>
@@ -2247,16 +2211,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C154"/>
+  <dimension ref="A1:C150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="D1" sqref="D1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.1796875" customWidth="1"/>
-    <col min="2" max="2" width="23.90625" customWidth="1"/>
+    <col min="1" max="1" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2268,1690 +2232,1646 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>461</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>453</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>454</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>346</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>347</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>348</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>349</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>455</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>350</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>351</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>352</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>353</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>354</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>355</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>356</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>357</v>
+        <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>358</v>
+        <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>359</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>360</v>
+        <v>69</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>361</v>
+        <v>78</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>362</v>
+        <v>81</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>363</v>
+        <v>84</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="C29" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>364</v>
+        <v>87</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="C30" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>365</v>
+        <v>90</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>366</v>
+        <v>93</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="C32" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>367</v>
+        <v>96</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>72</v>
+        <v>97</v>
+      </c>
+      <c r="C33" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>368</v>
+        <v>99</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="C34" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>369</v>
+        <v>102</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" t="s">
-        <v>76</v>
+        <v>103</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>370</v>
+        <v>105</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="C36" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>371</v>
+        <v>108</v>
       </c>
       <c r="B37" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="C37" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>372</v>
+        <v>111</v>
       </c>
       <c r="B38" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="C38" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>373</v>
+        <v>114</v>
       </c>
       <c r="B39" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="C39" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>374</v>
+        <v>117</v>
       </c>
       <c r="B40" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="C40" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>375</v>
+        <v>120</v>
       </c>
       <c r="B41" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="C41" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>376</v>
+        <v>123</v>
       </c>
       <c r="B42" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="C42" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>377</v>
+        <v>126</v>
       </c>
       <c r="B43" t="s">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="C43" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>378</v>
+        <v>129</v>
       </c>
       <c r="B44" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="C44" t="s">
-        <v>94</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="B45" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="C45" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>379</v>
+        <v>135</v>
       </c>
       <c r="B46" t="s">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="C46" t="s">
-        <v>99</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>380</v>
+        <v>138</v>
       </c>
       <c r="B47" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="C47" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>381</v>
+        <v>141</v>
       </c>
       <c r="B48" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="C48" t="s">
-        <v>103</v>
+        <v>143</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>382</v>
+        <v>144</v>
       </c>
       <c r="B49" t="s">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="C49" t="s">
-        <v>105</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>383</v>
+        <v>147</v>
       </c>
       <c r="B50" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="C50" t="s">
-        <v>107</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
       <c r="B51" t="s">
-        <v>108</v>
+        <v>151</v>
       </c>
       <c r="C51" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>385</v>
+        <v>153</v>
       </c>
       <c r="B52" t="s">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c r="C52" t="s">
-        <v>111</v>
+        <v>155</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>386</v>
+        <v>156</v>
       </c>
       <c r="B53" t="s">
-        <v>112</v>
+        <v>157</v>
       </c>
       <c r="C53" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>387</v>
+        <v>159</v>
       </c>
       <c r="B54" t="s">
-        <v>114</v>
+        <v>160</v>
       </c>
       <c r="C54" t="s">
-        <v>115</v>
+        <v>161</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>116</v>
+        <v>162</v>
       </c>
       <c r="B55" t="s">
-        <v>117</v>
+        <v>163</v>
       </c>
       <c r="C55" t="s">
-        <v>118</v>
+        <v>164</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>388</v>
+        <v>165</v>
       </c>
       <c r="B56" t="s">
-        <v>119</v>
+        <v>166</v>
       </c>
       <c r="C56" t="s">
-        <v>120</v>
+        <v>167</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>389</v>
+        <v>168</v>
       </c>
       <c r="B57" t="s">
-        <v>121</v>
+        <v>169</v>
       </c>
       <c r="C57" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>390</v>
+        <v>171</v>
       </c>
       <c r="B58" t="s">
-        <v>123</v>
+        <v>172</v>
       </c>
       <c r="C58" t="s">
-        <v>124</v>
+        <v>173</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>391</v>
+        <v>174</v>
       </c>
       <c r="B59" t="s">
-        <v>125</v>
+        <v>175</v>
       </c>
       <c r="C59" t="s">
-        <v>126</v>
+        <v>176</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>392</v>
+        <v>177</v>
       </c>
       <c r="B60" t="s">
-        <v>127</v>
+        <v>178</v>
       </c>
       <c r="C60" t="s">
-        <v>128</v>
+        <v>179</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>393</v>
+        <v>180</v>
       </c>
       <c r="B61" t="s">
-        <v>129</v>
+        <v>181</v>
       </c>
       <c r="C61" t="s">
-        <v>130</v>
+        <v>182</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>394</v>
+        <v>183</v>
       </c>
       <c r="B62" t="s">
-        <v>131</v>
+        <v>184</v>
       </c>
       <c r="C62" t="s">
-        <v>132</v>
+        <v>185</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>395</v>
+        <v>186</v>
       </c>
       <c r="B63" t="s">
-        <v>133</v>
+        <v>187</v>
       </c>
       <c r="C63" t="s">
-        <v>134</v>
+        <v>188</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>396</v>
+        <v>189</v>
       </c>
       <c r="B64" t="s">
-        <v>135</v>
+        <v>190</v>
       </c>
       <c r="C64" t="s">
-        <v>136</v>
+        <v>191</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>397</v>
+        <v>192</v>
       </c>
       <c r="B65" t="s">
-        <v>137</v>
+        <v>193</v>
       </c>
       <c r="C65" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>398</v>
+        <v>195</v>
       </c>
       <c r="B66" t="s">
-        <v>139</v>
+        <v>196</v>
       </c>
       <c r="C66" t="s">
-        <v>140</v>
+        <v>197</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>399</v>
+        <v>198</v>
       </c>
       <c r="B67" t="s">
-        <v>141</v>
+        <v>199</v>
       </c>
       <c r="C67" t="s">
-        <v>142</v>
+        <v>200</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>400</v>
+        <v>201</v>
       </c>
       <c r="B68" t="s">
-        <v>143</v>
+        <v>202</v>
       </c>
       <c r="C68" t="s">
-        <v>144</v>
+        <v>203</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>401</v>
+        <v>204</v>
       </c>
       <c r="B69" t="s">
-        <v>145</v>
+        <v>205</v>
       </c>
       <c r="C69" t="s">
-        <v>146</v>
+        <v>206</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>147</v>
+        <v>207</v>
       </c>
       <c r="B70" t="s">
-        <v>148</v>
+        <v>208</v>
       </c>
       <c r="C70" t="s">
-        <v>149</v>
+        <v>209</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>402</v>
+        <v>210</v>
       </c>
       <c r="B71" t="s">
-        <v>150</v>
+        <v>211</v>
       </c>
       <c r="C71" t="s">
-        <v>151</v>
+        <v>212</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>403</v>
+        <v>213</v>
       </c>
       <c r="B72" t="s">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="C72" t="s">
-        <v>153</v>
+        <v>215</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>404</v>
+        <v>216</v>
       </c>
       <c r="B73" t="s">
-        <v>154</v>
+        <v>217</v>
       </c>
       <c r="C73" t="s">
-        <v>155</v>
+        <v>218</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>156</v>
+        <v>219</v>
       </c>
       <c r="B74" t="s">
-        <v>157</v>
+        <v>220</v>
       </c>
       <c r="C74" t="s">
-        <v>158</v>
+        <v>221</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>405</v>
+        <v>222</v>
       </c>
       <c r="B75" t="s">
-        <v>159</v>
+        <v>223</v>
       </c>
       <c r="C75" t="s">
-        <v>160</v>
+        <v>224</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>406</v>
+        <v>225</v>
       </c>
       <c r="B76" t="s">
-        <v>161</v>
+        <v>226</v>
       </c>
       <c r="C76" t="s">
-        <v>162</v>
+        <v>227</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>407</v>
+        <v>228</v>
       </c>
       <c r="B77" t="s">
-        <v>163</v>
+        <v>229</v>
       </c>
       <c r="C77" t="s">
-        <v>164</v>
+        <v>230</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>408</v>
+        <v>231</v>
       </c>
       <c r="B78" t="s">
-        <v>165</v>
+        <v>232</v>
       </c>
       <c r="C78" t="s">
-        <v>166</v>
+        <v>233</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>409</v>
+        <v>234</v>
       </c>
       <c r="B79" t="s">
-        <v>167</v>
+        <v>235</v>
       </c>
       <c r="C79" t="s">
-        <v>168</v>
+        <v>236</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>410</v>
+        <v>237</v>
       </c>
       <c r="B80" t="s">
-        <v>169</v>
+        <v>238</v>
       </c>
       <c r="C80" t="s">
-        <v>170</v>
+        <v>239</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>411</v>
+        <v>240</v>
       </c>
       <c r="B81" t="s">
-        <v>171</v>
+        <v>241</v>
       </c>
       <c r="C81" t="s">
-        <v>172</v>
+        <v>242</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>173</v>
+        <v>243</v>
       </c>
       <c r="B82" t="s">
-        <v>174</v>
+        <v>244</v>
       </c>
       <c r="C82" t="s">
-        <v>175</v>
+        <v>245</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>412</v>
+        <v>246</v>
       </c>
       <c r="B83" t="s">
-        <v>176</v>
+        <v>247</v>
       </c>
       <c r="C83" t="s">
-        <v>177</v>
+        <v>248</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>413</v>
+        <v>249</v>
       </c>
       <c r="B84" t="s">
-        <v>178</v>
+        <v>250</v>
       </c>
       <c r="C84" t="s">
-        <v>179</v>
+        <v>251</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>457</v>
+        <v>252</v>
       </c>
       <c r="B85" t="s">
-        <v>180</v>
+        <v>253</v>
       </c>
       <c r="C85" t="s">
-        <v>181</v>
+        <v>254</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>414</v>
+        <v>255</v>
       </c>
       <c r="B86" t="s">
-        <v>182</v>
+        <v>256</v>
       </c>
       <c r="C86" t="s">
-        <v>183</v>
+        <v>257</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>415</v>
+        <v>258</v>
       </c>
       <c r="B87" t="s">
-        <v>184</v>
+        <v>259</v>
       </c>
       <c r="C87" t="s">
-        <v>185</v>
+        <v>260</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>416</v>
+        <v>261</v>
       </c>
       <c r="B88" t="s">
-        <v>186</v>
+        <v>262</v>
       </c>
       <c r="C88" t="s">
-        <v>187</v>
+        <v>263</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>188</v>
+        <v>264</v>
       </c>
       <c r="B89" t="s">
-        <v>189</v>
+        <v>265</v>
       </c>
       <c r="C89" t="s">
-        <v>190</v>
+        <v>266</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>458</v>
+        <v>267</v>
       </c>
       <c r="B90" t="s">
-        <v>191</v>
+        <v>268</v>
       </c>
       <c r="C90" t="s">
-        <v>192</v>
+        <v>269</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>193</v>
+        <v>270</v>
       </c>
       <c r="B91" t="s">
-        <v>194</v>
+        <v>271</v>
       </c>
       <c r="C91" t="s">
-        <v>195</v>
+        <v>272</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>417</v>
+        <v>273</v>
       </c>
       <c r="B92" t="s">
-        <v>196</v>
+        <v>274</v>
       </c>
       <c r="C92" t="s">
-        <v>197</v>
+        <v>275</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>459</v>
+        <v>276</v>
       </c>
       <c r="B93" t="s">
-        <v>198</v>
+        <v>277</v>
       </c>
       <c r="C93" t="s">
-        <v>199</v>
+        <v>278</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>200</v>
+        <v>279</v>
       </c>
       <c r="B94" t="s">
-        <v>201</v>
+        <v>280</v>
       </c>
       <c r="C94" t="s">
-        <v>202</v>
+        <v>281</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>418</v>
+        <v>282</v>
       </c>
       <c r="B95" t="s">
-        <v>203</v>
+        <v>283</v>
       </c>
       <c r="C95" t="s">
-        <v>204</v>
+        <v>284</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>419</v>
+        <v>285</v>
       </c>
       <c r="B96" t="s">
-        <v>205</v>
+        <v>286</v>
       </c>
       <c r="C96" t="s">
-        <v>206</v>
+        <v>287</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>207</v>
+        <v>288</v>
       </c>
       <c r="B97" t="s">
-        <v>208</v>
+        <v>289</v>
       </c>
       <c r="C97" t="s">
-        <v>209</v>
+        <v>290</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>420</v>
+        <v>291</v>
       </c>
       <c r="B98" t="s">
-        <v>210</v>
+        <v>292</v>
       </c>
       <c r="C98" t="s">
-        <v>211</v>
+        <v>293</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>421</v>
+        <v>294</v>
       </c>
       <c r="B99" t="s">
-        <v>212</v>
+        <v>295</v>
       </c>
       <c r="C99" t="s">
-        <v>213</v>
+        <v>296</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>214</v>
+        <v>297</v>
       </c>
       <c r="B100" t="s">
-        <v>215</v>
+        <v>298</v>
       </c>
       <c r="C100" t="s">
-        <v>216</v>
+        <v>299</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>422</v>
+        <v>300</v>
       </c>
       <c r="B101" t="s">
-        <v>217</v>
+        <v>301</v>
       </c>
       <c r="C101" t="s">
-        <v>218</v>
+        <v>302</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>423</v>
+        <v>303</v>
       </c>
       <c r="B102" t="s">
-        <v>219</v>
+        <v>304</v>
       </c>
       <c r="C102" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>221</v>
+        <v>306</v>
       </c>
       <c r="B103" t="s">
-        <v>222</v>
+        <v>307</v>
       </c>
       <c r="C103" t="s">
-        <v>223</v>
+        <v>308</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>424</v>
+        <v>309</v>
       </c>
       <c r="B104" t="s">
-        <v>224</v>
+        <v>310</v>
       </c>
       <c r="C104" t="s">
-        <v>225</v>
+        <v>311</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>226</v>
+        <v>312</v>
       </c>
       <c r="B105" t="s">
-        <v>227</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>228</v>
+        <v>313</v>
+      </c>
+      <c r="C105" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>460</v>
+        <v>315</v>
       </c>
       <c r="B106" t="s">
-        <v>229</v>
+        <v>316</v>
       </c>
       <c r="C106" t="s">
-        <v>230</v>
+        <v>317</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>231</v>
+        <v>318</v>
       </c>
       <c r="B107" t="s">
-        <v>232</v>
+        <v>319</v>
       </c>
       <c r="C107" t="s">
-        <v>233</v>
+        <v>320</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>234</v>
+        <v>321</v>
       </c>
       <c r="B108" t="s">
-        <v>235</v>
+        <v>322</v>
       </c>
       <c r="C108" t="s">
-        <v>236</v>
+        <v>323</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>425</v>
+        <v>324</v>
       </c>
       <c r="B109" t="s">
-        <v>237</v>
+        <v>325</v>
       </c>
       <c r="C109" t="s">
-        <v>238</v>
+        <v>326</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>426</v>
+        <v>327</v>
       </c>
       <c r="B110" t="s">
-        <v>239</v>
+        <v>328</v>
       </c>
       <c r="C110" t="s">
-        <v>240</v>
+        <v>329</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>427</v>
+        <v>330</v>
       </c>
       <c r="B111" t="s">
-        <v>241</v>
+        <v>331</v>
       </c>
       <c r="C111" t="s">
-        <v>242</v>
+        <v>332</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>243</v>
+        <v>333</v>
       </c>
       <c r="B112" t="s">
-        <v>244</v>
+        <v>334</v>
       </c>
       <c r="C112" t="s">
-        <v>245</v>
+        <v>335</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>428</v>
+        <v>336</v>
       </c>
       <c r="B113" t="s">
-        <v>246</v>
+        <v>337</v>
       </c>
       <c r="C113" t="s">
-        <v>247</v>
+        <v>338</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>429</v>
+        <v>339</v>
       </c>
       <c r="B114" t="s">
-        <v>248</v>
+        <v>340</v>
       </c>
       <c r="C114" t="s">
-        <v>249</v>
+        <v>341</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>430</v>
+        <v>342</v>
       </c>
       <c r="B115" t="s">
-        <v>250</v>
+        <v>343</v>
       </c>
       <c r="C115" t="s">
-        <v>251</v>
+        <v>344</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>252</v>
+        <v>345</v>
       </c>
       <c r="B116" t="s">
-        <v>253</v>
+        <v>346</v>
       </c>
       <c r="C116" t="s">
-        <v>254</v>
+        <v>347</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>431</v>
+        <v>348</v>
       </c>
       <c r="B117" t="s">
-        <v>255</v>
+        <v>349</v>
       </c>
       <c r="C117" t="s">
-        <v>256</v>
+        <v>350</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>257</v>
+        <v>351</v>
       </c>
       <c r="B118" t="s">
-        <v>258</v>
+        <v>352</v>
       </c>
       <c r="C118" t="s">
-        <v>259</v>
+        <v>353</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>432</v>
+        <v>354</v>
       </c>
       <c r="B119" t="s">
-        <v>260</v>
+        <v>355</v>
       </c>
       <c r="C119" t="s">
-        <v>261</v>
+        <v>356</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>433</v>
+        <v>357</v>
       </c>
       <c r="B120" t="s">
-        <v>262</v>
+        <v>358</v>
       </c>
       <c r="C120" t="s">
-        <v>263</v>
+        <v>359</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>456</v>
+        <v>360</v>
       </c>
       <c r="B121" t="s">
-        <v>264</v>
+        <v>361</v>
       </c>
       <c r="C121" t="s">
-        <v>265</v>
+        <v>362</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>434</v>
+        <v>363</v>
       </c>
       <c r="B122" t="s">
-        <v>266</v>
+        <v>364</v>
       </c>
       <c r="C122" t="s">
-        <v>267</v>
+        <v>365</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>435</v>
+        <v>366</v>
       </c>
       <c r="B123" t="s">
-        <v>268</v>
+        <v>367</v>
       </c>
       <c r="C123" t="s">
-        <v>269</v>
+        <v>368</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>270</v>
+        <v>369</v>
       </c>
       <c r="B124" t="s">
-        <v>271</v>
+        <v>370</v>
       </c>
       <c r="C124" t="s">
-        <v>272</v>
+        <v>371</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>436</v>
+        <v>372</v>
       </c>
       <c r="B125" t="s">
-        <v>273</v>
+        <v>373</v>
       </c>
       <c r="C125" t="s">
-        <v>274</v>
+        <v>374</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>437</v>
+        <v>375</v>
       </c>
       <c r="B126" t="s">
-        <v>275</v>
+        <v>376</v>
       </c>
       <c r="C126" t="s">
-        <v>276</v>
+        <v>377</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>438</v>
+        <v>378</v>
       </c>
       <c r="B127" t="s">
-        <v>277</v>
+        <v>379</v>
       </c>
       <c r="C127" t="s">
-        <v>278</v>
+        <v>380</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>439</v>
+        <v>381</v>
       </c>
       <c r="B128" t="s">
-        <v>279</v>
+        <v>382</v>
       </c>
       <c r="C128" t="s">
-        <v>280</v>
+        <v>383</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>281</v>
+        <v>384</v>
       </c>
       <c r="B129" t="s">
-        <v>282</v>
+        <v>385</v>
       </c>
       <c r="C129" t="s">
-        <v>283</v>
+        <v>386</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>440</v>
+        <v>387</v>
       </c>
       <c r="B130" t="s">
-        <v>284</v>
+        <v>388</v>
       </c>
       <c r="C130" t="s">
-        <v>285</v>
+        <v>389</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>286</v>
+        <v>390</v>
       </c>
       <c r="B131" t="s">
-        <v>287</v>
+        <v>391</v>
       </c>
       <c r="C131" t="s">
-        <v>288</v>
+        <v>392</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>289</v>
+        <v>393</v>
       </c>
       <c r="B132" t="s">
-        <v>290</v>
+        <v>394</v>
       </c>
       <c r="C132" t="s">
-        <v>291</v>
+        <v>395</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>292</v>
+        <v>396</v>
       </c>
       <c r="B133" t="s">
-        <v>293</v>
+        <v>397</v>
       </c>
       <c r="C133" t="s">
-        <v>294</v>
+        <v>398</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>441</v>
+        <v>399</v>
       </c>
       <c r="B134" t="s">
-        <v>295</v>
+        <v>400</v>
       </c>
       <c r="C134" t="s">
-        <v>296</v>
+        <v>401</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>442</v>
+        <v>402</v>
       </c>
       <c r="B135" t="s">
-        <v>297</v>
+        <v>403</v>
       </c>
       <c r="C135" t="s">
-        <v>298</v>
+        <v>404</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>443</v>
+        <v>405</v>
       </c>
       <c r="B136" t="s">
-        <v>299</v>
+        <v>406</v>
       </c>
       <c r="C136" t="s">
-        <v>300</v>
+        <v>407</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>301</v>
+        <v>408</v>
       </c>
       <c r="B137" t="s">
-        <v>302</v>
+        <v>409</v>
       </c>
       <c r="C137" t="s">
-        <v>303</v>
+        <v>410</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>304</v>
+        <v>411</v>
       </c>
       <c r="B138" t="s">
-        <v>305</v>
+        <v>412</v>
       </c>
       <c r="C138" t="s">
-        <v>306</v>
+        <v>413</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>444</v>
+        <v>414</v>
       </c>
       <c r="B139" t="s">
-        <v>307</v>
+        <v>415</v>
       </c>
       <c r="C139" t="s">
-        <v>308</v>
+        <v>416</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>445</v>
+        <v>417</v>
       </c>
       <c r="B140" t="s">
-        <v>309</v>
+        <v>418</v>
       </c>
       <c r="C140" t="s">
-        <v>310</v>
+        <v>419</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>311</v>
+        <v>420</v>
       </c>
       <c r="B141" t="s">
-        <v>312</v>
+        <v>421</v>
       </c>
       <c r="C141" t="s">
-        <v>313</v>
+        <v>422</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>446</v>
+        <v>423</v>
       </c>
       <c r="B142" t="s">
-        <v>314</v>
+        <v>424</v>
       </c>
       <c r="C142" t="s">
-        <v>315</v>
+        <v>425</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>447</v>
+        <v>426</v>
       </c>
       <c r="B143" t="s">
-        <v>316</v>
+        <v>427</v>
       </c>
       <c r="C143" t="s">
-        <v>317</v>
+        <v>428</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>448</v>
+        <v>429</v>
       </c>
       <c r="B144" t="s">
-        <v>318</v>
+        <v>430</v>
       </c>
       <c r="C144" t="s">
-        <v>319</v>
+        <v>431</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="B145" t="s">
-        <v>320</v>
+        <v>433</v>
       </c>
       <c r="C145" t="s">
-        <v>321</v>
+        <v>434</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>322</v>
+        <v>435</v>
       </c>
       <c r="B146" t="s">
-        <v>323</v>
+        <v>436</v>
       </c>
       <c r="C146" t="s">
-        <v>324</v>
+        <v>437</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>325</v>
+        <v>438</v>
       </c>
       <c r="B147" t="s">
-        <v>326</v>
+        <v>439</v>
       </c>
       <c r="C147" t="s">
-        <v>327</v>
+        <v>440</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="B148" t="s">
-        <v>328</v>
+        <v>442</v>
       </c>
       <c r="C148" t="s">
-        <v>329</v>
+        <v>443</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="B149" t="s">
-        <v>330</v>
+        <v>445</v>
       </c>
       <c r="C149" t="s">
-        <v>331</v>
+        <v>446</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>332</v>
+        <v>447</v>
       </c>
       <c r="B150" t="s">
-        <v>333</v>
+        <v>448</v>
       </c>
       <c r="C150" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A151" t="s">
-        <v>335</v>
-      </c>
-      <c r="B151" t="s">
-        <v>336</v>
-      </c>
-      <c r="C151" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A152" t="s">
-        <v>338</v>
-      </c>
-      <c r="B152" t="s">
-        <v>339</v>
-      </c>
-      <c r="C152" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A153" t="s">
-        <v>452</v>
-      </c>
-      <c r="B153" t="s">
-        <v>341</v>
-      </c>
-      <c r="C153" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A154" t="s">
-        <v>343</v>
-      </c>
-      <c r="B154" t="s">
-        <v>344</v>
-      </c>
-      <c r="C154" t="s">
-        <v>345</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
